--- a/Data/BRUTOS-GERAIS/VENDEDORES/sh-vendedores_final.xlsx
+++ b/Data/BRUTOS-GERAIS/VENDEDORES/sh-vendedores_final.xlsx
@@ -854,7 +854,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" t="str">
         <v>RAFAEL</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B83" t="str">
         <v>MELISSA SACRAMENTO</v>
